--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madjain/eclipse-workspace/interview/testproject/dateparser/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madjain/git/selenium/dateparser/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C9D11-D728-4A44-867E-1CE1D6294F64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18D6D20-4135-4A4E-914D-3F65A50ADCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{88A9D157-BB7B-F149-ACE7-262FC6C52513}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{88A9D157-BB7B-F149-ACE7-262FC6C52513}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="210">
   <si>
     <t>TestcaseName</t>
   </si>
@@ -44,51 +45,12 @@
     <t>testcase_01</t>
   </si>
   <si>
-    <t>Positive testcase</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
     <t>ExpectedOutput</t>
   </si>
   <si>
-    <t>17-March-2020</t>
-  </si>
-  <si>
-    <t>17-March-20</t>
-  </si>
-  <si>
-    <t>17-Mar-2020</t>
-  </si>
-  <si>
-    <t>17-Mar-20</t>
-  </si>
-  <si>
-    <t>17-03-2020</t>
-  </si>
-  <si>
-    <t>17-03-20</t>
-  </si>
-  <si>
-    <t>March-17-2020</t>
-  </si>
-  <si>
-    <t>March-17-20</t>
-  </si>
-  <si>
-    <t>Mar-17-2020</t>
-  </si>
-  <si>
-    <t>Mar-17-20</t>
-  </si>
-  <si>
-    <t>03-17-20</t>
-  </si>
-  <si>
-    <t>03-17-2020</t>
-  </si>
-  <si>
     <t>testcase_02</t>
   </si>
   <si>
@@ -131,28 +93,577 @@
     <t>Status</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <t>UpdatedOn</t>
+  </si>
+  <si>
+    <t>testcase_13</t>
+  </si>
+  <si>
+    <t>testcase_14</t>
+  </si>
+  <si>
+    <t>testcase_15</t>
+  </si>
+  <si>
+    <t>testcase_16</t>
+  </si>
+  <si>
+    <t>testcase_17</t>
+  </si>
+  <si>
+    <t>testcase_18</t>
+  </si>
+  <si>
+    <t>testcase_19</t>
+  </si>
+  <si>
+    <t>testcase_20</t>
+  </si>
+  <si>
+    <t>testcase_21</t>
+  </si>
+  <si>
+    <t>testcase_22</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | DD&lt;sep&gt;MMMM&lt;sep&gt;YYYY | - &lt;sep&gt;</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | DD&lt;sep&gt;MMMM&lt;sep&gt;YY   | &lt;sep&gt; /</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | DD&lt;sep&gt;MMM&lt;sep&gt;YYYY  | &lt;sep&gt; Black Space</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | MMMM&lt;sep&gt;DD&lt;sep&gt;YYYY | &lt;sep&gt; Black Space</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | MMM&lt;sep&gt;DD&lt;sep&gt;YYYY  | &lt;sep&gt; -</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | DD&lt;sep&gt;MMM&lt;sep&gt;YY    | &lt;sep&gt; /</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | D&lt;sep&gt;MMM&lt;sep&gt;YY     | &lt;sep&gt; -</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | DD&lt;sep&gt;MM&lt;sep&gt;YY     | &lt;sep&gt; /</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | D&lt;sep&gt;M&lt;sep&gt;YYYY     | &lt;sep&gt; Black Space</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | MMMM&lt;sep&gt;DD&lt;sep&gt;YY   | &lt;sep&gt; /</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | MMM&lt;sep&gt;DD&lt;sep&gt;YY    | &lt;sep&gt; /</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | MMMM&lt;sep&gt;D&lt;sep&gt;YY    | &lt;sep&gt; Black Space</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | MM&lt;sep&gt;DD&lt;sep&gt;YYYY   | &lt;sep&gt; -</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | MM&lt;sep&gt;DD&lt;sep&gt;YY     | &lt;sep&gt; /</t>
+  </si>
+  <si>
+    <t>7 3 20</t>
+  </si>
+  <si>
+    <t>March 17 2020</t>
+  </si>
+  <si>
+    <t>March 7 20</t>
+  </si>
+  <si>
+    <t>Month-Day-Year | M&lt;sep&gt;D&lt;sep&gt;YYYY     | &lt;sep&gt; -</t>
+  </si>
+  <si>
+    <t>31-June-21</t>
+  </si>
+  <si>
+    <t>29/feb/2022</t>
+  </si>
+  <si>
+    <t>30-13-2026</t>
+  </si>
+  <si>
+    <t>35-09-2020</t>
+  </si>
+  <si>
+    <t>28 January</t>
+  </si>
+  <si>
+    <t>Day-Month-Year | DD&lt;sep&gt;MM&lt;sep&gt;YYYY     | &lt;sep&gt; Black Space</t>
+  </si>
+  <si>
+    <t>Date with non supported separator | YYYY, DD MMM  comma(,) ,colon(:)</t>
+  </si>
+  <si>
+    <t>17 02 2020</t>
+  </si>
+  <si>
+    <t>January/17/20</t>
+  </si>
+  <si>
+    <t>12-17-2020</t>
+  </si>
+  <si>
+    <t>10/17/20</t>
+  </si>
+  <si>
+    <t>7-7-20</t>
+  </si>
+  <si>
+    <t>2020, 17 Oct</t>
+  </si>
+  <si>
+    <t>17 Mar 2019</t>
+  </si>
+  <si>
+    <t>17/Apr/18</t>
+  </si>
+  <si>
+    <t>7-Dec-22</t>
+  </si>
+  <si>
+    <t>14-September-2020</t>
+  </si>
+  <si>
+    <t>12/11/20</t>
+  </si>
+  <si>
+    <t>Jul-17-2021</t>
+  </si>
+  <si>
+    <t>aug/17/22</t>
+  </si>
+  <si>
+    <t>Mon Sep 14 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Wed Jan 20 2021 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sun Mar 17 2019 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Tue Apr 17 2018 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Wed Dec 07 2022 00:00:00 GMT+0000</t>
   </si>
   <si>
     <t>Invalid date</t>
   </si>
   <si>
+    <t>Fri Jan 17 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sat Jul 17 2021 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Wed Aug 17 2022 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sat Mar 07 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Thu Dec 17 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sat Oct 17 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Tue Jul 07 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Thurs Nov 12 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sun Jan 28 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>20/January/21</t>
+  </si>
+  <si>
+    <t>Test with date 31 for Month of 30 Days | Any Date with matching criteria | Any separator</t>
+  </si>
+  <si>
+    <t>Test 29 Feb for non-leap year | Any Date with matching criteria|  Any separator</t>
+  </si>
+  <si>
+    <t>Test with not existing Month | Any Date with matching criteria|  Any separator</t>
+  </si>
+  <si>
+    <t>Test with not existing date | Any Date with matching criteria|  Any separator</t>
+  </si>
+  <si>
+    <t>Test without year | Any Date with matching criteria|  Any separator</t>
+  </si>
+  <si>
+    <t>Failed TC</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
+    <t>Sun Jun 28 23:36:10 IST 2020</t>
+  </si>
+  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:19 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:24 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:29 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:34 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:39 IST 2020</t>
+  </si>
+  <si>
+    <t>Fri Dec 11 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:46 IST 2020</t>
+  </si>
+  <si>
+    <t>Fri Jul 03 2020 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:50 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:36:55 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:00 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:05 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:10 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:15 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:20 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:25 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:30 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:35 IST 2020</t>
+  </si>
+  <si>
+    <t>Thu Jul 01 2021 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:39 IST 2020</t>
+  </si>
+  <si>
+    <t>Tue Mar 01 2022 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:44 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:49 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:54 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jan 28 2001 00:00:00 GMT+0000</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:37:59 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:42:19 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:42:29 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:42:33 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:42:43 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:42:49 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:42:58 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:07 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:16 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:25 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:32 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:37 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:42 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:47 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:43:52 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:02 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:11 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:20 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:25 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:30 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:36 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:41 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:44:46 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:45:12 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:45:19 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:45:31 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:45:42 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:45:54 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:46:05 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:46:16 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:46:27 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:46:36 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:46:43 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:46:49 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:46:56 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:03 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:11 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:17 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:24 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:31 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:40 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:47 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:47:54 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:48:01 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:48:08 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:50:26 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:51:44 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:51:52 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:51:59 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:52:07 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:52:14 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:52:22 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:52:30 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:52:37 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:52:50 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:52:59 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:53:07 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:53:14 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:53:22 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:53:30 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:53:37 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:53:46 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:53:54 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:54:01 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:54:09 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:54:17 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:54:24 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:54:37 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:56:13 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:56:21 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:56:29 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:56:36 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:56:44 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:56:51 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:56:59 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:57:06 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:57:16 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:57:23 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:57:31 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:57:38 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:57:46 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:57:53 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:01 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:08 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:18 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:26 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:33 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:41 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:49 IST 2020</t>
+  </si>
+  <si>
+    <t>Sun Jun 28 23:58:56 IST 2020</t>
   </si>
 </sst>
 </file>
@@ -513,22 +1024,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C1006E-F8DC-1048-9C63-2C958F9F1128}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="18.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="81.83203125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="2" width="43.83203125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="33.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="47.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,280 +1047,582 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E8254-303B-614E-AEAE-BB58778F2197}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="76.1640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>